--- a/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
+++ b/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B5720D-4D5D-413A-BDEE-C7D459F6A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentla/git/neumont-college/csc181/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED0783-8AB0-C24E-AA0B-D989A17B5ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Participation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,42 +40,87 @@
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{38B5F15E-3A22-414F-A16C-5A8FBC1F5AD5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Will be attending class remotely</t>
+        </r>
       </text>
     </comment>
     <comment ref="D3" authorId="1" shapeId="0" xr:uid="{7E0C8C6E-458C-4C2C-A2BC-BC5F412BA9DE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Will be attending class remotely</t>
+        </r>
       </text>
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{647E9717-3E56-4E92-B1DF-DDEB875CFDAC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Will be attending class remotely</t>
+        </r>
       </text>
     </comment>
     <comment ref="F3" authorId="3" shapeId="0" xr:uid="{905B76BF-F9D2-4772-9711-7C5A743EBB6D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Will be attending class remotely</t>
+        </r>
       </text>
     </comment>
     <comment ref="G3" authorId="4" shapeId="0" xr:uid="{B9AD7AEB-2F9E-44CE-8FA0-E12FC0925DA5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Will be attending class remotely</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -80,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Student Name</t>
   </si>
@@ -112,12 +160,6 @@
     <t>lcarlson</t>
   </si>
   <si>
-    <t>Jack Cohn</t>
-  </si>
-  <si>
-    <t>JCohn</t>
-  </si>
-  <si>
     <t>Caleb Colby</t>
   </si>
   <si>
@@ -130,6 +172,9 @@
     <t>sderenski</t>
   </si>
   <si>
+    <t>Tyler Goldman</t>
+  </si>
+  <si>
     <t>Andrew Johnson</t>
   </si>
   <si>
@@ -142,15 +187,6 @@
     <t>qmorley</t>
   </si>
   <si>
-    <t>Richard San Nicolas</t>
-  </si>
-  <si>
-    <t>rsannicolas</t>
-  </si>
-  <si>
-    <t>Hilario Sanchez</t>
-  </si>
-  <si>
     <t>hisanchez</t>
   </si>
   <si>
@@ -164,6 +200,9 @@
   </si>
   <si>
     <t>nsickler</t>
+  </si>
+  <si>
+    <t>Madeline Sanchez</t>
   </si>
 </sst>
 </file>
@@ -551,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -602,108 +641,161 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -713,21 +805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABA45AF132BDA34E919AD8D1FD71F224" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="618ff0fc86a4a62b729a10605dc15638">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="770731ff-e340-430a-b21d-fe38220b9e0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35055ea3410c25e8f885610516ebbf34" ns2:_="">
     <xsd:import namespace="770731ff-e340-430a-b21d-fe38220b9e0e"/>
@@ -859,14 +936,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCEA264-8251-48C6-9886-2E0E686B26C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="770731ff-e340-430a-b21d-fe38220b9e0e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F6080F-3266-4883-A1FC-BE6770784F2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F6080F-3266-4883-A1FC-BE6770784F2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCEA264-8251-48C6-9886-2E0E686B26C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
+++ b/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentla/git/neumont-college/csc181/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED0783-8AB0-C24E-AA0B-D989A17B5ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFF0C6-7411-1247-A2A5-7F56502F4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -187,6 +189,9 @@
     <t>qmorley</t>
   </si>
   <si>
+    <t>Madeline Sanchez</t>
+  </si>
+  <si>
     <t>hisanchez</t>
   </si>
   <si>
@@ -200,9 +205,6 @@
   </si>
   <si>
     <t>nsickler</t>
-  </si>
-  <si>
-    <t>Madeline Sanchez</t>
   </si>
 </sst>
 </file>
@@ -592,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -654,6 +656,9 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="16">
       <c r="A3" t="s">
@@ -679,6 +684,9 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" t="s">
@@ -707,6 +715,9 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" t="s">
@@ -721,6 +732,9 @@
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -730,6 +744,9 @@
       <c r="D8">
         <v>4</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" t="s">
@@ -744,6 +761,9 @@
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="16">
       <c r="A10" t="s">
@@ -758,10 +778,10 @@
     </row>
     <row r="11" spans="1:12" ht="16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -772,10 +792,10 @@
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -783,13 +803,16 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -805,6 +828,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABA45AF132BDA34E919AD8D1FD71F224" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="618ff0fc86a4a62b729a10605dc15638">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="770731ff-e340-430a-b21d-fe38220b9e0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35055ea3410c25e8f885610516ebbf34" ns2:_="">
     <xsd:import namespace="770731ff-e340-430a-b21d-fe38220b9e0e"/>
@@ -936,22 +974,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F6080F-3266-4883-A1FC-BE6770784F2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCEA264-8251-48C6-9886-2E0E686B26C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -967,21 +1007,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F6080F-3266-4883-A1FC-BE6770784F2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
+++ b/csc181/CSC 181 Participation 2022 Winter Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentla/git/neumont-college/csc181/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentla/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFF0C6-7411-1247-A2A5-7F56502F4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43C0FFC-7F71-DD4C-AF4C-10D8C2526A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -595,7 +596,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -659,6 +660,9 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="16">
       <c r="A3" t="s">
@@ -687,6 +691,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" t="s">
@@ -701,6 +708,9 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" t="s">
@@ -718,6 +728,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" t="s">
@@ -735,6 +748,9 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -805,6 +821,9 @@
       </c>
       <c r="E12">
         <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16">
@@ -834,15 +853,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABA45AF132BDA34E919AD8D1FD71F224" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="618ff0fc86a4a62b729a10605dc15638">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="770731ff-e340-430a-b21d-fe38220b9e0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35055ea3410c25e8f885610516ebbf34" ns2:_="">
     <xsd:import namespace="770731ff-e340-430a-b21d-fe38220b9e0e"/>
@@ -974,6 +984,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F6080F-3266-4883-A1FC-BE6770784F2D}">
   <ds:schemaRefs>
@@ -984,14 +1003,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCEA264-8251-48C6-9886-2E0E686B26C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1007,4 +1018,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E50C50-6343-4F04-AC9A-7120C0E6F0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>